--- a/docs/Planung/Aufgabenverwaltung.xlsx
+++ b/docs/Planung/Aufgabenverwaltung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fweihrauch/Documents/Projekte/ITM7ProjektYooloo/docs/Planung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Berufsschule\AE\Klausur 3\fancyYooloo\docs\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0042E-C777-1A42-B480-E08E06616B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64431AE-8412-4C47-AA1A-E9D99732546D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{E86C910F-42CA-B345-8D4E-04C51D17E42D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E86C910F-42CA-B345-8D4E-04C51D17E42D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
   <si>
     <t>Aufgabenverwaltung</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Anlegen einer Aufgabenverwaltung</t>
+  </si>
+  <si>
+    <t>Ein-/Auslesen einer Permamenten Datei</t>
+  </si>
+  <si>
+    <t>Überschreibung der Initialen Reihenfolge der Karten eines Spielers, falls dieser vorher bekannt war</t>
+  </si>
+  <si>
+    <t>Speichern der zuletzt benutzen Reihenfolge der Karten aller Spieler eines Spiels</t>
+  </si>
+  <si>
+    <t>Ausschluss doppelter Spieler</t>
+  </si>
+  <si>
+    <t>Junit Tests</t>
   </si>
 </sst>
 </file>
@@ -117,7 +132,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -207,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -217,6 +238,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -538,35 +565,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50A5264-5C7F-D140-A235-5C39F6D8962C}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37">
+    <row r="1" spans="1:8" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1"/>
-    <row r="3" spans="1:8" ht="31">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1"/>
+    <row r="3" spans="1:8" ht="30">
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -589,7 +616,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26">
+    <row r="5" spans="1:8" ht="33">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -600,7 +630,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" thickBot="1">
+    <row r="6" spans="1:8" ht="65.25" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
@@ -608,7 +641,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="47.25">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
@@ -617,8 +653,16 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Planung/Aufgabenverwaltung.xlsx
+++ b/docs/Planung/Aufgabenverwaltung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Berufsschule\AE\Klausur 3\fancyYooloo\docs\Planung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fweihrauch/Documents/Projekte/ITM7ProjektYooloo/docs/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64431AE-8412-4C47-AA1A-E9D99732546D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28DB52-D9F2-DB41-9436-D93F05D3DE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E86C910F-42CA-B345-8D4E-04C51D17E42D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{E86C910F-42CA-B345-8D4E-04C51D17E42D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Aufgabenverwaltung</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Junit Tests</t>
+  </si>
+  <si>
+    <t>Anpassung des Server</t>
+  </si>
+  <si>
+    <t>Erstellung von Runnable zum Connection-Check nach X-Sekunden</t>
+  </si>
+  <si>
+    <t>Junit-Test</t>
+  </si>
+  <si>
+    <t>Anlegen einer Git-Repos auf GitHub</t>
+  </si>
+  <si>
+    <t>Erstellung von FeatureBranches</t>
+  </si>
+  <si>
+    <t>Rückführung von Feature in den Master</t>
   </si>
 </sst>
 </file>
@@ -228,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -242,6 +260,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,32 +590,32 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5">
+    <row r="1" spans="1:8" ht="37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1"/>
-    <row r="3" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="17" thickBot="1"/>
+    <row r="3" spans="1:8" ht="31">
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.5">
+    <row r="4" spans="1:8" ht="26">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -616,10 +638,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33">
+    <row r="5" spans="1:8" ht="36">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
       </c>
@@ -630,10 +655,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="65.25" thickBot="1">
+    <row r="6" spans="1:8" ht="71" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
@@ -641,10 +672,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="47.25">
+    <row r="7" spans="1:8" ht="51">
       <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
@@ -652,15 +689,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>

--- a/docs/Planung/Aufgabenverwaltung.xlsx
+++ b/docs/Planung/Aufgabenverwaltung.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fweihrauch/Documents/Projekte/ITM7ProjektYooloo/docs/Planung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\fancyYooloo\docs\Planung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F28DB52-D9F2-DB41-9436-D93F05D3DE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" xr2:uid="{E86C910F-42CA-B345-8D4E-04C51D17E42D}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Aufgabenverwaltung</t>
   </si>
@@ -115,12 +114,45 @@
   </si>
   <si>
     <t>Rückführung von Feature in den Master</t>
+  </si>
+  <si>
+    <t>Sortierreihenfolgen für Clients  festlegen</t>
+  </si>
+  <si>
+    <t>Clients sollten mehrere Reihenfolgen für die Sortierung besitzen und diese sollten variieren.</t>
+  </si>
+  <si>
+    <t>Es können noch weitere Reihenfolgen hinzugefüt werden. Eine weitere Möglichkeit wäre es die Spieler zu zählen und anhand der Anzahl die Strategie zu wechseln.</t>
+  </si>
+  <si>
+    <t>Lukas Luzius</t>
+  </si>
+  <si>
+    <t>Philipp Gahlen</t>
+  </si>
+  <si>
+    <t>Lukas Loenser</t>
+  </si>
+  <si>
+    <t>Falco Weihrauch</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Der Server merkt sich die Karten die der Spieler gesendet hat.</t>
+  </si>
+  <si>
+    <t>Bei gespielten Karten wird geprüft ob die Karte schon gesendet wurde, wenn die Karte schon gespielt wurde wird das Spiel abgebrochen.</t>
+  </si>
+  <si>
+    <t>Junit Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -150,7 +182,7 @@
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +207,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -246,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -256,15 +282,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,9 +306,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7E79"/>
+      <color rgb="FFFFFD78"/>
       <color rgb="FF73FB79"/>
-      <color rgb="FFFFFD78"/>
-      <color rgb="FFFF7E79"/>
     </mruColors>
   </colors>
   <extLst>
@@ -586,36 +618,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50A5264-5C7F-D140-A235-5C39F6D8962C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37">
+    <row r="1" spans="1:8" ht="34.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickBot="1"/>
-    <row r="3" spans="1:8" ht="31">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1"/>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26">
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -638,9 +688,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" ht="33">
+      <c r="A5" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>22</v>
@@ -655,11 +711,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="71" thickBot="1">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:8" ht="65.25" thickBot="1">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -672,11 +734,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" ht="94.5">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -689,19 +757,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" ht="31.5">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
